--- a/biology/Médecine/Charles_Patin/Charles_Patin.xlsx
+++ b/biology/Médecine/Charles_Patin/Charles_Patin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Patin, né le 23 février 1633 à Paris et mort le 10 octobre 1693 à Padoue, est un médecin et numismate français.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils du médecin et épistolier Guy Patin, Charles étudia, après s’être fait recevoir avocat, la médecine, prit le grade de docteur et exerça avec distinction. Menacé de poursuites par Colbert pour contrebande de livres interdits[1], il quitta, sur les conseils de son père, la France, parcourut l’Allemagne et l’Italie avant de s’établir à Padoue où il occupa successivement les chaires de médecine et de chirurgie. Il fut membre de l’académie des Ricovrati et de celle des Curieux de la nature (Leopoldina).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils du médecin et épistolier Guy Patin, Charles étudia, après s’être fait recevoir avocat, la médecine, prit le grade de docteur et exerça avec distinction. Menacé de poursuites par Colbert pour contrebande de livres interdits, il quitta, sur les conseils de son père, la France, parcourut l’Allemagne et l’Italie avant de s’établir à Padoue où il occupa successivement les chaires de médecine et de chirurgie. Il fut membre de l’académie des Ricovrati et de celle des Curieux de la nature (Leopoldina).
 Patin s’occupa également longuement de numismatique et d’archéologie, et publia entre autres ouvrages : Traité des tourbes combustibles (Paris, 1663), Familiæ romanæ ex antiquuis numismatibus (Paris, 1665, in-fol.) ; Introduction à l’histoire par la connaissance des médailles (Paris, 1665, in-12), ouvrage souvent réimprimé, sous le titre d’Histoire des médailles, et que de Sallo, le directeur du Journal des Savants , accusait bruyamment de plagiat ; Imperatorum romanorum numismata, Strasbourg, 1671, in-fol.) ; Thesaurus numismatum e museo Patini (Amsterdam, 1672, in-4°) ; Relations de voyages (Bâle, 1673, in-12), où l’on remarque surtout ce qui est relatif aux musées d’Allemagne ; Lyceum Patavinum (Padoue, 1681, in-4°), etc.
 Charles Patin a donné quelques éditions, notamment celle de Suétone avec les médailles (Bâle, 1675, in-4°). Il avait épousé Madeleine Homanet dont il eut deux filles, Charlotte-Catherine et Gabrielle-Charlotte.
 </t>
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Indépendamment de quelques Thèses, d’une édition des Voyages de Loménie, des Lettres de Pierre Martyr d'Anghiera, Amsterdam, 1670, in-fol., de l’Éloge de la folie, d’Érasme, avec les figures d’Holbein, Bâle, 1676, in-12, de Suétone, avec les médailles, ibid., 1673, 1707, in-4°, et de quelques Opuscules, dont on trouvera la liste dans les Mémoires de Niceron, t. 2, on a de Ch. Patin :
 Familiæ Romanæ ex antiquis numismatibus illustratæ a Fulvio Ursino (Fulvio Orsini), cum accessionibus et commentariis, Paris, 1663, in-fol. Vaillant a donné une nouvelle édition de cet ouvrage ; mais les amateurs les recherchent l’une et l’autre.
@@ -560,7 +576,7 @@
 Lycæum Patavinum, sive icones et vitæ professorum Patavii anno 1682 publice docentium, ibid., in-4°. Patin y a inséré une courte notice sur sa vie et ses ouvrages, que Camusat a traduite en français, dans l’Hist. critiq. des journaux, p. 202-229.
 De numismatibus quibusdam abstrusis imperatoris Neronis disquisitio per epistolas, Brème, 1681, in-4°. C’est le recueil de la correspondance de Patin avec Eggeling, secrétaire du conseil de Brème, au sujet de quelques médailles de Néron, que leur état rendait difficiles à expliquer.
 Thesaurus numismatum antiquorum et recentium a Petro Mauroceno collector., Venise, 1684, in-4°, rare. C’est la description du cabinet du sénateur Morosini.
-Commentarius in tres inscriptiones græcas Smyrna nuper allatas, Padoue, 1683, in-4° ; — In antiquum monumentum Marcellinæ e Græcia nuper allatum, ibid., 1688, in-4°[3] ; — In antiquum Cœnotaphium Marci Astorii, medici Cæsaris Augusti, ibid., 1689, in-4°. Ces trois dissertations ont été insérées par Poleni dans le recueil intitulé Utriusque Thesauri supplementum.
+Commentarius in tres inscriptiones græcas Smyrna nuper allatas, Padoue, 1683, in-4° ; — In antiquum monumentum Marcellinæ e Græcia nuper allatum, ibid., 1688, in-4° ; — In antiquum Cœnotaphium Marci Astorii, medici Cæsaris Augusti, ibid., 1689, in-4°. Ces trois dissertations ont été insérées par Poleni dans le recueil intitulé Utriusque Thesauri supplementum.
 In stirpem regiam epigrammata (Devises et emblèmes de la maison royale), Paris, 1660 ; Amsterdam, 1693, in-4° de 23 pages, latin et français ;
 Lettre au roi, du 26 mars 1662, in-4° de 8 pages ;
 une Lettre à J. Faber, écrite de Padoue le 20 décembre 1677 (dans les Amœnit. litter. de Schelhorn, t. 10, p. 1252) ;
